--- a/events1920.xlsx
+++ b/events1920.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10917"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annabelwhipp/Desktop/Desktop – Annabel’s MacBook Pro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mt15scg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACCBAFF0-B235-944B-B907-4E5B21F22540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Calendar" sheetId="6" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Communications" sheetId="3" r:id="rId4"/>
     <sheet name="Additional" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="59">
   <si>
     <t>Event Organiser</t>
   </si>
@@ -179,12 +178,45 @@
   </si>
   <si>
     <t>Intro to data science</t>
+  </si>
+  <si>
+    <t>12,19,26/11, 3/12/2019</t>
+  </si>
+  <si>
+    <t>5:30-7:30</t>
+  </si>
+  <si>
+    <t>Beginners' Data Challenge</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.co.uk/e/74279956349/</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pumpkin CaRving</t>
+  </si>
+  <si>
+    <t>Come and enjoy our Halloween themed workshop! You can get to grips with some basic R skills and the versatile ggplot2 data visualisation package while making some haunting pumpkin graphs. Halloween fancy dress welcome!</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>https://www.eventbrite.co.uk/e/pumpkin-carving-introductory-data-visualisation-with-r-tickets-75991270937</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -398,7 +430,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -515,6 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -805,25 +838,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -847,7 +880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="18">
         <v>43731</v>
       </c>
@@ -859,7 +892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="18">
         <f>A3+7</f>
         <v>43738</v>
@@ -868,7 +901,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
         <f t="shared" ref="A5:A18" si="0">A4+7</f>
         <v>43745</v>
@@ -877,13 +910,13 @@
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="18">
         <f t="shared" si="0"/>
         <v>43752</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="18">
         <f t="shared" si="0"/>
         <v>43759</v>
@@ -892,115 +925,115 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
         <f t="shared" si="0"/>
         <v>43766</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="18">
         <f t="shared" si="0"/>
         <v>43773</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="18">
         <f t="shared" si="0"/>
         <v>43780</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
         <f t="shared" si="0"/>
         <v>43787</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="18">
         <f t="shared" si="0"/>
         <v>43794</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="18">
         <f t="shared" si="0"/>
         <v>43801</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
         <f t="shared" si="0"/>
         <v>43808</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="18">
         <f t="shared" si="0"/>
         <v>43815</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="18">
         <f t="shared" si="0"/>
         <v>43822</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="18">
         <f t="shared" si="0"/>
         <v>43829</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="18">
         <f t="shared" si="0"/>
         <v>43836</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="18">
         <v>43732</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="18">
         <f>A19+7</f>
         <v>43739</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="18">
         <f t="shared" ref="A21:A26" si="1">A20+7</f>
         <v>43746</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="18">
         <f t="shared" si="1"/>
         <v>43753</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="18">
         <f t="shared" si="1"/>
         <v>43760</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="18">
         <f t="shared" si="1"/>
         <v>43767</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="18">
         <f t="shared" si="1"/>
         <v>43774</v>
       </c>
       <c r="I25" s="29"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="18">
         <f t="shared" si="1"/>
         <v>43781</v>
@@ -1013,39 +1046,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.6640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.1640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="3" customWidth="1"/>
-    <col min="11" max="12" width="13.83203125" style="1" customWidth="1"/>
-    <col min="13" max="14" width="17.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5" style="3" customWidth="1"/>
-    <col min="18" max="18" width="14.5" style="1" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="3"/>
-    <col min="20" max="20" width="15.6640625" style="1"/>
-    <col min="21" max="21" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="18.83203125" style="3" customWidth="1"/>
-    <col min="24" max="16384" width="15.6640625" style="1"/>
+    <col min="7" max="8" width="11.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="3" customWidth="1"/>
+    <col min="11" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="14" width="17.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="3"/>
+    <col min="20" max="20" width="15.7109375" style="1"/>
+    <col min="21" max="21" width="18.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="18.85546875" style="3" customWidth="1"/>
+    <col min="24" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1116,7 @@
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1190,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
@@ -1182,15 +1215,47 @@
       <c r="U3" s="10"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="8">
+        <v>43768</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="6">
+        <v>32</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="13"/>
+      <c r="K4" s="5">
+        <v>43761.416666666664</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="9"/>
@@ -1199,30 +1264,73 @@
       <c r="U4" s="10"/>
       <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="D5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="6" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="6">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="5">
+        <v>43743.416666666664</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="10"/>
+      <c r="W5" s="7"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="F6"/>
       <c r="K6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="P6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="K7" s="5"/>
       <c r="N7" s="12"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F11" s="15"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F13" s="14"/>
     </row>
   </sheetData>
@@ -1234,45 +1342,49 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="P1:Q1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N5" r:id="rId1"/>
+    <hyperlink ref="N4" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1422,7 @@
       <c r="W1" s="33"/>
       <c r="X1" s="33"/>
     </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" s="4" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:24" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1407,7 +1519,7 @@
       <c r="U3" s="10"/>
       <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:24" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -1428,7 +1540,7 @@
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
     </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:24" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1451,7 +1563,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:24" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5"/>
@@ -1476,28 +1588,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
